--- a/data/real_data/地层坐标.xlsx
+++ b/data/real_data/地层坐标.xlsx
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3029.429999999702</v>
+        <v>4305983.6</v>
       </c>
       <c r="C2">
-        <v>-2982.369999997318</v>
+        <v>37422042.63</v>
       </c>
       <c r="D2">
-        <v>-146.84</v>
+        <v>1062.81</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -455,13 +455,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3035.349999999627</v>
+        <v>4305989.52</v>
       </c>
       <c r="C3">
-        <v>-2016.460000000894</v>
+        <v>37423008.54</v>
       </c>
       <c r="D3">
-        <v>-152.6700000000001</v>
+        <v>1056.98</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -469,13 +469,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3050.120000000112</v>
+        <v>4306004.29</v>
       </c>
       <c r="C4">
-        <v>1972.79999999702</v>
+        <v>37426997.8</v>
       </c>
       <c r="D4">
-        <v>-121.04</v>
+        <v>1088.61</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -483,13 +483,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2061.5</v>
+        <v>4305015.67</v>
       </c>
       <c r="C5">
-        <v>987.9200000017881</v>
+        <v>37426012.92</v>
       </c>
       <c r="D5">
-        <v>-124.75</v>
+        <v>1084.9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,13 +497,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2107.299999999814</v>
+        <v>4305061.47</v>
       </c>
       <c r="C6">
-        <v>-1947.490000002086</v>
+        <v>37423077.51</v>
       </c>
       <c r="D6">
-        <v>-146.79</v>
+        <v>1062.86</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>40.21999999973923</v>
+        <v>4302994.39</v>
       </c>
       <c r="C7">
-        <v>-3025.95000000298</v>
+        <v>37421999.05</v>
       </c>
       <c r="D7">
-        <v>-152.02</v>
+        <v>1057.63</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -525,13 +525,13 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>2034.280000000261</v>
+        <v>4304988.45</v>
       </c>
       <c r="C8">
-        <v>2969.64999999851</v>
+        <v>37427994.65</v>
       </c>
       <c r="D8">
-        <v>-112.5000000000002</v>
+        <v>1097.15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -539,13 +539,13 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>1063.200000000186</v>
+        <v>4304017.37</v>
       </c>
       <c r="C9">
-        <v>-20.21000000089407</v>
+        <v>37425004.79</v>
       </c>
       <c r="D9">
-        <v>-128.0700000000002</v>
+        <v>1081.58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -553,13 +553,13 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>1111.169999999925</v>
+        <v>4304065.34</v>
       </c>
       <c r="C10">
-        <v>-1959.119999997318</v>
+        <v>37423065.88</v>
       </c>
       <c r="D10">
-        <v>-144.41</v>
+        <v>1065.24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -567,13 +567,13 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>2044.450000000186</v>
+        <v>4304998.62</v>
       </c>
       <c r="C11">
-        <v>-41.75</v>
+        <v>37424983.25</v>
       </c>
       <c r="D11">
-        <v>-128.3000000000002</v>
+        <v>1081.35</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -581,13 +581,13 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4302954.17</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>37425025</v>
       </c>
       <c r="D12">
-        <v>-127.57</v>
+        <v>1082.08</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -595,13 +595,13 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>53.16999999992549</v>
+        <v>4303007.34</v>
       </c>
       <c r="C13">
-        <v>-1866</v>
+        <v>37423159</v>
       </c>
       <c r="D13">
-        <v>-137.2500000000001</v>
+        <v>1072.4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -609,13 +609,13 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>3052.830000000075</v>
+        <v>4306007</v>
       </c>
       <c r="C14">
-        <v>-13.42000000178814</v>
+        <v>37425011.58</v>
       </c>
       <c r="D14">
-        <v>-139.9200000000002</v>
+        <v>1069.73</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -623,13 +623,13 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>1052.160000000149</v>
+        <v>4304006.33</v>
       </c>
       <c r="C15">
-        <v>965</v>
+        <v>37425990</v>
       </c>
       <c r="D15">
-        <v>-121.7600000000001</v>
+        <v>1087.89</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -637,13 +637,13 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>2006.730000000447</v>
+        <v>4304960.9</v>
       </c>
       <c r="C16">
-        <v>1914</v>
+        <v>37426939</v>
       </c>
       <c r="D16">
-        <v>-121.7200000000002</v>
+        <v>1087.93</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -651,13 +651,13 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>3041.400000000373</v>
+        <v>4305995.57</v>
       </c>
       <c r="C17">
-        <v>-1045.359999999404</v>
+        <v>37423979.64</v>
       </c>
       <c r="D17">
-        <v>-145.5800000000001</v>
+        <v>1064.07</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -665,13 +665,13 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>2026.629999999888</v>
+        <v>4304980.8</v>
       </c>
       <c r="C18">
-        <v>-1014.869999997318</v>
+        <v>37424010.13</v>
       </c>
       <c r="D18">
-        <v>-140.74</v>
+        <v>1068.91</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -679,13 +679,13 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>64.56000000052154</v>
+        <v>4303018.73</v>
       </c>
       <c r="C19">
-        <v>-1029.75</v>
+        <v>37423995.25</v>
       </c>
       <c r="D19">
-        <v>-132.4900000000001</v>
+        <v>1077.16</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -693,13 +693,13 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <v>1079.870000000112</v>
+        <v>4304034.04</v>
       </c>
       <c r="C20">
-        <v>-3041</v>
+        <v>37421984</v>
       </c>
       <c r="D20">
-        <v>-151.0700000000002</v>
+        <v>1058.58</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -707,13 +707,13 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>2077.900000000373</v>
+        <v>4305032.07</v>
       </c>
       <c r="C21">
-        <v>-3037.729999996722</v>
+        <v>37421987.27</v>
       </c>
       <c r="D21">
-        <v>-163.1800000000002</v>
+        <v>1046.47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -721,13 +721,13 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>1041.099999999627</v>
+        <v>4303995.27</v>
       </c>
       <c r="C22">
-        <v>-1042.189999997616</v>
+        <v>37423982.81</v>
       </c>
       <c r="D22">
-        <v>-136.4000000000001</v>
+        <v>1073.25</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -735,13 +735,13 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>3024.959999999963</v>
+        <v>4305979.13</v>
       </c>
       <c r="C23">
-        <v>1004</v>
+        <v>37426029</v>
       </c>
       <c r="D23">
-        <v>-128.1100000000002</v>
+        <v>1081.54</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -749,13 +749,13 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>1042.900000000373</v>
+        <v>4303997.07</v>
       </c>
       <c r="C24">
-        <v>2968</v>
+        <v>37427993</v>
       </c>
       <c r="D24">
-        <v>-110.1100000000002</v>
+        <v>1099.54</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -763,13 +763,13 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>1042.900000000373</v>
+        <v>4303997.07</v>
       </c>
       <c r="C25">
-        <v>2968</v>
+        <v>37427993</v>
       </c>
       <c r="D25">
-        <v>26.20999999999981</v>
+        <v>1235.86</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -777,13 +777,13 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>2077.900000000373</v>
+        <v>4305032.07</v>
       </c>
       <c r="C26">
-        <v>-3037.729999996722</v>
+        <v>37421987.27</v>
       </c>
       <c r="D26">
-        <v>-3.040000000000191</v>
+        <v>1206.61</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -791,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>4302954.17</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>37425025</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1209.65</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -805,13 +805,13 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>1063.200000000186</v>
+        <v>4304017.37</v>
       </c>
       <c r="C28">
-        <v>-20.21000000089407</v>
+        <v>37425004.79</v>
       </c>
       <c r="D28">
-        <v>2.429999999999836</v>
+        <v>1212.08</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -819,13 +819,13 @@
         <v>5</v>
       </c>
       <c r="B29">
-        <v>2044.450000000186</v>
+        <v>4304998.62</v>
       </c>
       <c r="C29">
-        <v>-41.75</v>
+        <v>37424983.25</v>
       </c>
       <c r="D29">
-        <v>9.659999999999854</v>
+        <v>1219.31</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -833,13 +833,13 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>3052.830000000075</v>
+        <v>4306007</v>
       </c>
       <c r="C30">
-        <v>-13.42000000178814</v>
+        <v>37425011.58</v>
       </c>
       <c r="D30">
-        <v>11.42999999999984</v>
+        <v>1221.08</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -847,13 +847,13 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>64.56000000052154</v>
+        <v>4303018.73</v>
       </c>
       <c r="C31">
-        <v>-1029.75</v>
+        <v>37423995.25</v>
       </c>
       <c r="D31">
-        <v>-6.8900000000001</v>
+        <v>1202.76</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -861,13 +861,13 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>1052.160000000149</v>
+        <v>4304006.33</v>
       </c>
       <c r="C32">
-        <v>965</v>
+        <v>37425990</v>
       </c>
       <c r="D32">
-        <v>12.1099999999999</v>
+        <v>1221.76</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -875,13 +875,13 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>1041.099999999627</v>
+        <v>4303995.27</v>
       </c>
       <c r="C33">
-        <v>-1042.189999997616</v>
+        <v>37423982.81</v>
       </c>
       <c r="D33">
-        <v>-1.100000000000136</v>
+        <v>1208.55</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -889,13 +889,13 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>2026.629999999888</v>
+        <v>4304980.8</v>
       </c>
       <c r="C34">
-        <v>-1014.869999997318</v>
+        <v>37424010.13</v>
       </c>
       <c r="D34">
-        <v>2.029999999999973</v>
+        <v>1211.68</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -903,13 +903,13 @@
         <v>5</v>
       </c>
       <c r="B35">
-        <v>3024.959999999963</v>
+        <v>4305979.13</v>
       </c>
       <c r="C35">
-        <v>1004</v>
+        <v>37426029</v>
       </c>
       <c r="D35">
-        <v>14.90999999999985</v>
+        <v>1224.56</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>3041.400000000373</v>
+        <v>4305995.57</v>
       </c>
       <c r="C36">
-        <v>-1045.359999999404</v>
+        <v>37423979.64</v>
       </c>
       <c r="D36">
-        <v>7.819999999999936</v>
+        <v>1217.47</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -931,13 +931,13 @@
         <v>5</v>
       </c>
       <c r="B37">
-        <v>3050.120000000112</v>
+        <v>4306004.29</v>
       </c>
       <c r="C37">
-        <v>1972.79999999702</v>
+        <v>37426997.8</v>
       </c>
       <c r="D37">
-        <v>24.5</v>
+        <v>1234.15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -945,13 +945,13 @@
         <v>5</v>
       </c>
       <c r="B38">
-        <v>1111.169999999925</v>
+        <v>4304065.34</v>
       </c>
       <c r="C38">
-        <v>-1959.119999997318</v>
+        <v>37423065.88</v>
       </c>
       <c r="D38">
-        <v>-6.460000000000036</v>
+        <v>1203.19</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -959,13 +959,13 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <v>2006.730000000447</v>
+        <v>4304960.9</v>
       </c>
       <c r="C39">
-        <v>1914</v>
+        <v>37426939</v>
       </c>
       <c r="D39">
-        <v>18.70999999999981</v>
+        <v>1228.36</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -973,13 +973,13 @@
         <v>5</v>
       </c>
       <c r="B40">
-        <v>2107.299999999814</v>
+        <v>4305061.47</v>
       </c>
       <c r="C40">
-        <v>-1947.490000002086</v>
+        <v>37423077.51</v>
       </c>
       <c r="D40">
-        <v>0.009999999999990905</v>
+        <v>1209.66</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -987,13 +987,13 @@
         <v>5</v>
       </c>
       <c r="B41">
-        <v>3035.349999999627</v>
+        <v>4305989.52</v>
       </c>
       <c r="C41">
-        <v>-2016.460000000894</v>
+        <v>37423008.54</v>
       </c>
       <c r="D41">
-        <v>4.379999999999882</v>
+        <v>1214.03</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1001,13 +1001,13 @@
         <v>5</v>
       </c>
       <c r="B42">
-        <v>2034.280000000261</v>
+        <v>4304988.45</v>
       </c>
       <c r="C42">
-        <v>2969.64999999851</v>
+        <v>37427994.65</v>
       </c>
       <c r="D42">
-        <v>24.41999999999985</v>
+        <v>1234.07</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1015,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="B43">
-        <v>40.21999999973923</v>
+        <v>4302994.39</v>
       </c>
       <c r="C43">
-        <v>-3025.95000000298</v>
+        <v>37421999.05</v>
       </c>
       <c r="D43">
-        <v>-12.22000000000003</v>
+        <v>1197.43</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1029,13 +1029,13 @@
         <v>5</v>
       </c>
       <c r="B44">
-        <v>1079.870000000112</v>
+        <v>4304034.04</v>
       </c>
       <c r="C44">
-        <v>-3041</v>
+        <v>37421984</v>
       </c>
       <c r="D44">
-        <v>-5.310000000000173</v>
+        <v>1204.34</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1043,13 +1043,13 @@
         <v>5</v>
       </c>
       <c r="B45">
-        <v>3029.429999999702</v>
+        <v>4305983.6</v>
       </c>
       <c r="C45">
-        <v>-2982.369999997318</v>
+        <v>37422042.63</v>
       </c>
       <c r="D45">
-        <v>3.019999999999982</v>
+        <v>1212.67</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1057,13 +1057,13 @@
         <v>5</v>
       </c>
       <c r="B46">
-        <v>53.16999999992549</v>
+        <v>4303007.34</v>
       </c>
       <c r="C46">
-        <v>-1866</v>
+        <v>37423159</v>
       </c>
       <c r="D46">
-        <v>-20.94000000000005</v>
+        <v>1188.71</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1071,13 +1071,13 @@
         <v>5</v>
       </c>
       <c r="B47">
-        <v>2061.5</v>
+        <v>4305015.67</v>
       </c>
       <c r="C47">
-        <v>987.9200000017881</v>
+        <v>37426012.92</v>
       </c>
       <c r="D47">
-        <v>13.25</v>
+        <v>1222.9</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1085,13 +1085,13 @@
         <v>6</v>
       </c>
       <c r="B48">
-        <v>1041.099999999627</v>
+        <v>4303995.27</v>
       </c>
       <c r="C48">
-        <v>-1042.189999997616</v>
+        <v>37423982.81</v>
       </c>
       <c r="D48">
-        <v>-36.50000000000014</v>
+        <v>1173.15</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1099,13 +1099,13 @@
         <v>6</v>
       </c>
       <c r="B49">
-        <v>3052.830000000075</v>
+        <v>4306007</v>
       </c>
       <c r="C49">
-        <v>-13.42000000178814</v>
+        <v>37425011.58</v>
       </c>
       <c r="D49">
-        <v>-24.47000000000016</v>
+        <v>1185.18</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1113,13 +1113,13 @@
         <v>6</v>
       </c>
       <c r="B50">
-        <v>1052.160000000149</v>
+        <v>4304006.33</v>
       </c>
       <c r="C50">
-        <v>965</v>
+        <v>37425990</v>
       </c>
       <c r="D50">
-        <v>-36.5600000000001</v>
+        <v>1173.09</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1127,13 +1127,13 @@
         <v>6</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>4302954.17</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>37425025</v>
       </c>
       <c r="D51">
-        <v>-35.04</v>
+        <v>1174.61</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1141,13 +1141,13 @@
         <v>6</v>
       </c>
       <c r="B52">
-        <v>2044.450000000186</v>
+        <v>4304998.62</v>
       </c>
       <c r="C52">
-        <v>-41.75</v>
+        <v>37424983.25</v>
       </c>
       <c r="D52">
-        <v>-54.39000000000014</v>
+        <v>1155.26</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1155,13 +1155,13 @@
         <v>6</v>
       </c>
       <c r="B53">
-        <v>1063.200000000186</v>
+        <v>4304017.37</v>
       </c>
       <c r="C53">
-        <v>-20.21000000089407</v>
+        <v>37425004.79</v>
       </c>
       <c r="D53">
-        <v>-30.64000000000016</v>
+        <v>1179.01</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1169,13 +1169,13 @@
         <v>6</v>
       </c>
       <c r="B54">
-        <v>2061.5</v>
+        <v>4305015.67</v>
       </c>
       <c r="C54">
-        <v>987.9200000017881</v>
+        <v>37426012.92</v>
       </c>
       <c r="D54">
-        <v>-16.15</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1183,13 +1183,13 @@
         <v>6</v>
       </c>
       <c r="B55">
-        <v>3029.429999999702</v>
+        <v>4305983.6</v>
       </c>
       <c r="C55">
-        <v>-2982.369999997318</v>
+        <v>37422042.63</v>
       </c>
       <c r="D55">
-        <v>-30.05000000000002</v>
+        <v>1179.6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1197,13 +1197,13 @@
         <v>6</v>
       </c>
       <c r="B56">
-        <v>64.56000000052154</v>
+        <v>4303018.73</v>
       </c>
       <c r="C56">
-        <v>-1029.75</v>
+        <v>37423995.25</v>
       </c>
       <c r="D56">
-        <v>-83.29000000000011</v>
+        <v>1126.36</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1211,13 +1211,13 @@
         <v>6</v>
       </c>
       <c r="B57">
-        <v>2077.900000000373</v>
+        <v>4305032.07</v>
       </c>
       <c r="C57">
-        <v>-3037.729999996722</v>
+        <v>37421987.27</v>
       </c>
       <c r="D57">
-        <v>-38.16000000000019</v>
+        <v>1171.49</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1225,13 +1225,13 @@
         <v>6</v>
       </c>
       <c r="B58">
-        <v>53.16999999992549</v>
+        <v>4303007.34</v>
       </c>
       <c r="C58">
-        <v>-1866</v>
+        <v>37423159</v>
       </c>
       <c r="D58">
-        <v>-92.17000000000006</v>
+        <v>1117.48</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1239,13 +1239,13 @@
         <v>6</v>
       </c>
       <c r="B59">
-        <v>3050.120000000112</v>
+        <v>4306004.29</v>
       </c>
       <c r="C59">
-        <v>1972.79999999702</v>
+        <v>37426997.8</v>
       </c>
       <c r="D59">
-        <v>-5.059999999999999</v>
+        <v>1204.59</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1253,13 +1253,13 @@
         <v>6</v>
       </c>
       <c r="B60">
-        <v>1042.900000000373</v>
+        <v>4303997.07</v>
       </c>
       <c r="C60">
-        <v>2968</v>
+        <v>37427993</v>
       </c>
       <c r="D60">
-        <v>20.20999999999981</v>
+        <v>1229.86</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1267,13 +1267,13 @@
         <v>6</v>
       </c>
       <c r="B61">
-        <v>3035.349999999627</v>
+        <v>4305989.52</v>
       </c>
       <c r="C61">
-        <v>-2016.460000000894</v>
+        <v>37423008.54</v>
       </c>
       <c r="D61">
-        <v>-28.52000000000012</v>
+        <v>1181.13</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1281,13 +1281,13 @@
         <v>6</v>
       </c>
       <c r="B62">
-        <v>40.21999999973923</v>
+        <v>4302994.39</v>
       </c>
       <c r="C62">
-        <v>-3025.95000000298</v>
+        <v>37421999.05</v>
       </c>
       <c r="D62">
-        <v>-48.12000000000003</v>
+        <v>1161.53</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1295,13 +1295,13 @@
         <v>6</v>
       </c>
       <c r="B63">
-        <v>2107.299999999814</v>
+        <v>4305061.47</v>
       </c>
       <c r="C63">
-        <v>-1947.490000002086</v>
+        <v>37423077.51</v>
       </c>
       <c r="D63">
-        <v>-46.55000000000001</v>
+        <v>1163.1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1309,13 +1309,13 @@
         <v>6</v>
       </c>
       <c r="B64">
-        <v>2034.280000000261</v>
+        <v>4304988.45</v>
       </c>
       <c r="C64">
-        <v>2969.64999999851</v>
+        <v>37427994.65</v>
       </c>
       <c r="D64">
-        <v>-7.21000000000015</v>
+        <v>1202.44</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1323,13 +1323,13 @@
         <v>6</v>
       </c>
       <c r="B65">
-        <v>1111.169999999925</v>
+        <v>4304065.34</v>
       </c>
       <c r="C65">
-        <v>-1959.119999997318</v>
+        <v>37423065.88</v>
       </c>
       <c r="D65">
-        <v>-54.36000000000003</v>
+        <v>1155.29</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1337,13 +1337,13 @@
         <v>6</v>
       </c>
       <c r="B66">
-        <v>3024.959999999963</v>
+        <v>4305979.13</v>
       </c>
       <c r="C66">
-        <v>1004</v>
+        <v>37426029</v>
       </c>
       <c r="D66">
-        <v>-30.24000000000015</v>
+        <v>1179.41</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1351,13 +1351,13 @@
         <v>6</v>
       </c>
       <c r="B67">
-        <v>1079.870000000112</v>
+        <v>4304034.04</v>
       </c>
       <c r="C67">
-        <v>-3041</v>
+        <v>37421984</v>
       </c>
       <c r="D67">
-        <v>-51.84000000000017</v>
+        <v>1157.81</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1365,13 +1365,13 @@
         <v>6</v>
       </c>
       <c r="B68">
-        <v>3041.400000000373</v>
+        <v>4305995.57</v>
       </c>
       <c r="C68">
-        <v>-1045.359999999404</v>
+        <v>37423979.64</v>
       </c>
       <c r="D68">
-        <v>-43.69000000000006</v>
+        <v>1165.96</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1379,13 +1379,13 @@
         <v>6</v>
       </c>
       <c r="B69">
-        <v>2026.629999999888</v>
+        <v>4304980.8</v>
       </c>
       <c r="C69">
-        <v>-1014.869999997318</v>
+        <v>37424010.13</v>
       </c>
       <c r="D69">
-        <v>-64.27000000000002</v>
+        <v>1145.38</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1393,13 +1393,13 @@
         <v>6</v>
       </c>
       <c r="B70">
-        <v>2006.730000000447</v>
+        <v>4304960.9</v>
       </c>
       <c r="C70">
-        <v>1914</v>
+        <v>37426939</v>
       </c>
       <c r="D70">
-        <v>4.279999999999809</v>
+        <v>1213.93</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1407,13 +1407,13 @@
         <v>7</v>
       </c>
       <c r="B71">
-        <v>3052.830000000075</v>
+        <v>4306007</v>
       </c>
       <c r="C71">
-        <v>-13.42000000178814</v>
+        <v>37425011.58</v>
       </c>
       <c r="D71">
-        <v>-143.0200000000002</v>
+        <v>1066.63</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1421,13 +1421,13 @@
         <v>7</v>
       </c>
       <c r="B72">
-        <v>3024.959999999963</v>
+        <v>4305979.13</v>
       </c>
       <c r="C72">
-        <v>1004</v>
+        <v>37426029</v>
       </c>
       <c r="D72">
-        <v>-130.9900000000002</v>
+        <v>1078.66</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1435,13 +1435,13 @@
         <v>7</v>
       </c>
       <c r="B73">
-        <v>3029.429999999702</v>
+        <v>4305983.6</v>
       </c>
       <c r="C73">
-        <v>-2982.369999997318</v>
+        <v>37422042.63</v>
       </c>
       <c r="D73">
-        <v>-149.57</v>
+        <v>1060.08</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1449,13 +1449,13 @@
         <v>7</v>
       </c>
       <c r="B74">
-        <v>3035.349999999627</v>
+        <v>4305989.52</v>
       </c>
       <c r="C74">
-        <v>-2016.460000000894</v>
+        <v>37423008.54</v>
       </c>
       <c r="D74">
-        <v>-155.3100000000001</v>
+        <v>1054.34</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1463,13 +1463,13 @@
         <v>7</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>4302954.17</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>37425025</v>
       </c>
       <c r="D75">
-        <v>-130.72</v>
+        <v>1078.93</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1477,13 +1477,13 @@
         <v>7</v>
       </c>
       <c r="B76">
-        <v>1079.870000000112</v>
+        <v>4304034.04</v>
       </c>
       <c r="C76">
-        <v>-3041</v>
+        <v>37421984</v>
       </c>
       <c r="D76">
-        <v>-153.8400000000002</v>
+        <v>1055.81</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1491,13 +1491,13 @@
         <v>7</v>
       </c>
       <c r="B77">
-        <v>2107.299999999814</v>
+        <v>4305061.47</v>
       </c>
       <c r="C77">
-        <v>-1947.490000002086</v>
+        <v>37423077.51</v>
       </c>
       <c r="D77">
-        <v>-149.79</v>
+        <v>1059.86</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1505,13 +1505,13 @@
         <v>7</v>
       </c>
       <c r="B78">
-        <v>2026.629999999888</v>
+        <v>4304980.8</v>
       </c>
       <c r="C78">
-        <v>-1014.869999997318</v>
+        <v>37424010.13</v>
       </c>
       <c r="D78">
-        <v>-143.74</v>
+        <v>1065.91</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1519,13 +1519,13 @@
         <v>7</v>
       </c>
       <c r="B79">
-        <v>40.21999999973923</v>
+        <v>4302994.39</v>
       </c>
       <c r="C79">
-        <v>-3025.95000000298</v>
+        <v>37421999.05</v>
       </c>
       <c r="D79">
-        <v>-154.72</v>
+        <v>1054.93</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1533,13 +1533,13 @@
         <v>7</v>
       </c>
       <c r="B80">
-        <v>1041.099999999627</v>
+        <v>4303995.27</v>
       </c>
       <c r="C80">
-        <v>-1042.189999997616</v>
+        <v>37423982.81</v>
       </c>
       <c r="D80">
-        <v>-139.1000000000001</v>
+        <v>1070.55</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1547,13 +1547,13 @@
         <v>7</v>
       </c>
       <c r="B81">
-        <v>2044.450000000186</v>
+        <v>4304998.62</v>
       </c>
       <c r="C81">
-        <v>-41.75</v>
+        <v>37424983.25</v>
       </c>
       <c r="D81">
-        <v>-131.5000000000001</v>
+        <v>1078.15</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1561,13 +1561,13 @@
         <v>7</v>
       </c>
       <c r="B82">
-        <v>53.16999999992549</v>
+        <v>4303007.34</v>
       </c>
       <c r="C82">
-        <v>-1866</v>
+        <v>37423159</v>
       </c>
       <c r="D82">
-        <v>-140.15</v>
+        <v>1069.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1575,13 +1575,13 @@
         <v>7</v>
       </c>
       <c r="B83">
-        <v>3041.400000000373</v>
+        <v>4305995.57</v>
       </c>
       <c r="C83">
-        <v>-1045.359999999404</v>
+        <v>37423979.64</v>
       </c>
       <c r="D83">
-        <v>-148.4400000000001</v>
+        <v>1061.21</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1589,13 +1589,13 @@
         <v>7</v>
       </c>
       <c r="B84">
-        <v>64.56000000052154</v>
+        <v>4303018.73</v>
       </c>
       <c r="C84">
-        <v>-1029.75</v>
+        <v>37423995.25</v>
       </c>
       <c r="D84">
-        <v>-135.3900000000001</v>
+        <v>1074.26</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1603,13 +1603,13 @@
         <v>7</v>
       </c>
       <c r="B85">
-        <v>1111.169999999925</v>
+        <v>4304065.34</v>
       </c>
       <c r="C85">
-        <v>-1959.119999997318</v>
+        <v>37423065.88</v>
       </c>
       <c r="D85">
-        <v>-147.26</v>
+        <v>1062.39</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1617,13 +1617,13 @@
         <v>7</v>
       </c>
       <c r="B86">
-        <v>1063.200000000186</v>
+        <v>4304017.37</v>
       </c>
       <c r="C86">
-        <v>-20.21000000089407</v>
+        <v>37425004.79</v>
       </c>
       <c r="D86">
-        <v>-131.3800000000002</v>
+        <v>1078.27</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1631,13 +1631,13 @@
         <v>7</v>
       </c>
       <c r="B87">
-        <v>2061.5</v>
+        <v>4305015.67</v>
       </c>
       <c r="C87">
-        <v>987.9200000017881</v>
+        <v>37426012.92</v>
       </c>
       <c r="D87">
-        <v>-127.75</v>
+        <v>1081.9</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1645,13 +1645,13 @@
         <v>7</v>
       </c>
       <c r="B88">
-        <v>1052.160000000149</v>
+        <v>4304006.33</v>
       </c>
       <c r="C88">
-        <v>965</v>
+        <v>37425990</v>
       </c>
       <c r="D88">
-        <v>-124.9000000000001</v>
+        <v>1084.75</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1659,13 +1659,13 @@
         <v>7</v>
       </c>
       <c r="B89">
-        <v>2077.900000000373</v>
+        <v>4305032.07</v>
       </c>
       <c r="C89">
-        <v>-3037.729999996722</v>
+        <v>37421987.27</v>
       </c>
       <c r="D89">
-        <v>-165.8800000000002</v>
+        <v>1043.77</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1673,13 +1673,13 @@
         <v>7</v>
       </c>
       <c r="B90">
-        <v>2006.730000000447</v>
+        <v>4304960.9</v>
       </c>
       <c r="C90">
-        <v>1914</v>
+        <v>37426939</v>
       </c>
       <c r="D90">
-        <v>-125.0200000000002</v>
+        <v>1084.63</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1687,13 +1687,13 @@
         <v>7</v>
       </c>
       <c r="B91">
-        <v>3050.120000000112</v>
+        <v>4306004.29</v>
       </c>
       <c r="C91">
-        <v>1972.79999999702</v>
+        <v>37426997.8</v>
       </c>
       <c r="D91">
-        <v>-124.34</v>
+        <v>1085.31</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1701,13 +1701,13 @@
         <v>7</v>
       </c>
       <c r="B92">
-        <v>1042.900000000373</v>
+        <v>4303997.07</v>
       </c>
       <c r="C92">
-        <v>2968</v>
+        <v>37427993</v>
       </c>
       <c r="D92">
-        <v>-113.2900000000002</v>
+        <v>1096.36</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1715,13 +1715,13 @@
         <v>7</v>
       </c>
       <c r="B93">
-        <v>2034.280000000261</v>
+        <v>4304988.45</v>
       </c>
       <c r="C93">
-        <v>2969.64999999851</v>
+        <v>37427994.65</v>
       </c>
       <c r="D93">
-        <v>-115.6000000000002</v>
+        <v>1094.05</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1729,13 +1729,13 @@
         <v>8</v>
       </c>
       <c r="B94">
-        <v>1063.200000000186</v>
+        <v>4304017.37</v>
       </c>
       <c r="C94">
-        <v>-20.21000000089407</v>
+        <v>37425004.79</v>
       </c>
       <c r="D94">
-        <v>-174.5500000000002</v>
+        <v>1035.1</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1743,13 +1743,13 @@
         <v>8</v>
       </c>
       <c r="B95">
-        <v>2077.900000000373</v>
+        <v>4305032.07</v>
       </c>
       <c r="C95">
-        <v>-3037.729999996722</v>
+        <v>37421987.27</v>
       </c>
       <c r="D95">
-        <v>-211.4400000000002</v>
+        <v>998.21</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1757,13 +1757,13 @@
         <v>8</v>
       </c>
       <c r="B96">
-        <v>3041.400000000373</v>
+        <v>4305995.57</v>
       </c>
       <c r="C96">
-        <v>-1045.359999999404</v>
+        <v>37423979.64</v>
       </c>
       <c r="D96">
-        <v>-199.9900000000001</v>
+        <v>1009.66</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1771,13 +1771,13 @@
         <v>8</v>
       </c>
       <c r="B97">
-        <v>1041.099999999627</v>
+        <v>4303995.27</v>
       </c>
       <c r="C97">
-        <v>-1042.189999997616</v>
+        <v>37423982.81</v>
       </c>
       <c r="D97">
-        <v>-187.8000000000001</v>
+        <v>1021.85</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1785,13 +1785,13 @@
         <v>8</v>
       </c>
       <c r="B98">
-        <v>1079.870000000112</v>
+        <v>4304034.04</v>
       </c>
       <c r="C98">
-        <v>-3041</v>
+        <v>37421984</v>
       </c>
       <c r="D98">
-        <v>-199.5400000000002</v>
+        <v>1010.11</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1799,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="B99">
-        <v>40.21999999973923</v>
+        <v>4302994.39</v>
       </c>
       <c r="C99">
-        <v>-3025.95000000298</v>
+        <v>37421999.05</v>
       </c>
       <c r="D99">
-        <v>-200.42</v>
+        <v>1009.23</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1813,13 +1813,13 @@
         <v>8</v>
       </c>
       <c r="B100">
-        <v>3052.830000000075</v>
+        <v>4306007</v>
       </c>
       <c r="C100">
-        <v>-13.42000000178814</v>
+        <v>37425011.58</v>
       </c>
       <c r="D100">
-        <v>-190.6700000000002</v>
+        <v>1018.98</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1827,13 +1827,13 @@
         <v>8</v>
       </c>
       <c r="B101">
-        <v>2044.450000000186</v>
+        <v>4304998.62</v>
       </c>
       <c r="C101">
-        <v>-41.75</v>
+        <v>37424983.25</v>
       </c>
       <c r="D101">
-        <v>-178.2400000000002</v>
+        <v>1031.41</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1841,13 +1841,13 @@
         <v>8</v>
       </c>
       <c r="B102">
-        <v>53.16999999992549</v>
+        <v>4303007.34</v>
       </c>
       <c r="C102">
-        <v>-1866</v>
+        <v>37423159</v>
       </c>
       <c r="D102">
-        <v>-187.52</v>
+        <v>1022.13</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1855,13 +1855,13 @@
         <v>8</v>
       </c>
       <c r="B103">
-        <v>1111.169999999925</v>
+        <v>4304065.34</v>
       </c>
       <c r="C103">
-        <v>-1959.119999997318</v>
+        <v>37423065.88</v>
       </c>
       <c r="D103">
-        <v>-194.76</v>
+        <v>1014.89</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1869,13 +1869,13 @@
         <v>8</v>
       </c>
       <c r="B104">
-        <v>2034.280000000261</v>
+        <v>4304988.45</v>
       </c>
       <c r="C104">
-        <v>2969.64999999851</v>
+        <v>37427994.65</v>
       </c>
       <c r="D104">
-        <v>-152.5600000000002</v>
+        <v>1057.09</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1883,13 +1883,13 @@
         <v>8</v>
       </c>
       <c r="B105">
-        <v>64.56000000052154</v>
+        <v>4303018.73</v>
       </c>
       <c r="C105">
-        <v>-1029.75</v>
+        <v>37423995.25</v>
       </c>
       <c r="D105">
-        <v>-184.0900000000001</v>
+        <v>1025.56</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1897,13 +1897,13 @@
         <v>8</v>
       </c>
       <c r="B106">
-        <v>1052.160000000149</v>
+        <v>4304006.33</v>
       </c>
       <c r="C106">
-        <v>965</v>
+        <v>37425990</v>
       </c>
       <c r="D106">
-        <v>-170.0000000000001</v>
+        <v>1039.65</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1911,13 +1911,13 @@
         <v>8</v>
       </c>
       <c r="B107">
-        <v>2107.299999999814</v>
+        <v>4305061.47</v>
       </c>
       <c r="C107">
-        <v>-1947.490000002086</v>
+        <v>37423077.51</v>
       </c>
       <c r="D107">
-        <v>-199.68</v>
+        <v>1009.97</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1925,13 +1925,13 @@
         <v>8</v>
       </c>
       <c r="B108">
-        <v>3029.429999999702</v>
+        <v>4305983.6</v>
       </c>
       <c r="C108">
-        <v>-2982.369999997318</v>
+        <v>37422042.63</v>
       </c>
       <c r="D108">
-        <v>-193.77</v>
+        <v>1015.88</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1939,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="B109">
-        <v>2026.629999999888</v>
+        <v>4304980.8</v>
       </c>
       <c r="C109">
-        <v>-1014.869999997318</v>
+        <v>37424010.13</v>
       </c>
       <c r="D109">
-        <v>-193.22</v>
+        <v>1016.43</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1953,13 +1953,13 @@
         <v>8</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>4302954.17</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>37425025</v>
       </c>
       <c r="D110">
-        <v>-174.15</v>
+        <v>1035.5</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1967,13 +1967,13 @@
         <v>8</v>
       </c>
       <c r="B111">
-        <v>2006.730000000447</v>
+        <v>4304960.9</v>
       </c>
       <c r="C111">
-        <v>1914</v>
+        <v>37426939</v>
       </c>
       <c r="D111">
-        <v>-169.1100000000002</v>
+        <v>1040.54</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1981,13 +1981,13 @@
         <v>8</v>
       </c>
       <c r="B112">
-        <v>2061.5</v>
+        <v>4305015.67</v>
       </c>
       <c r="C112">
-        <v>987.9200000017881</v>
+        <v>37426012.92</v>
       </c>
       <c r="D112">
-        <v>-173.5</v>
+        <v>1036.15</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1995,13 +1995,13 @@
         <v>8</v>
       </c>
       <c r="B113">
-        <v>3024.959999999963</v>
+        <v>4305979.13</v>
       </c>
       <c r="C113">
-        <v>1004</v>
+        <v>37426029</v>
       </c>
       <c r="D113">
-        <v>-178.3600000000002</v>
+        <v>1031.29</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2009,13 +2009,13 @@
         <v>8</v>
       </c>
       <c r="B114">
-        <v>3035.349999999627</v>
+        <v>4305989.52</v>
       </c>
       <c r="C114">
-        <v>-2016.460000000894</v>
+        <v>37423008.54</v>
       </c>
       <c r="D114">
-        <v>-204.2300000000001</v>
+        <v>1005.42</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2023,13 +2023,13 @@
         <v>8</v>
       </c>
       <c r="B115">
-        <v>1042.900000000373</v>
+        <v>4303997.07</v>
       </c>
       <c r="C115">
-        <v>2968</v>
+        <v>37427993</v>
       </c>
       <c r="D115">
-        <v>-168.8000000000002</v>
+        <v>1040.85</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2037,13 +2037,13 @@
         <v>8</v>
       </c>
       <c r="B116">
-        <v>3050.120000000112</v>
+        <v>4306004.29</v>
       </c>
       <c r="C116">
-        <v>1972.79999999702</v>
+        <v>37426997.8</v>
       </c>
       <c r="D116">
-        <v>-168.3</v>
+        <v>1041.35</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2051,13 +2051,13 @@
         <v>9</v>
       </c>
       <c r="B117">
-        <v>2026.629999999888</v>
+        <v>4304980.8</v>
       </c>
       <c r="C117">
-        <v>-1014.869999997318</v>
+        <v>37424010.13</v>
       </c>
       <c r="D117">
-        <v>-260.56</v>
+        <v>949.09</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2065,13 +2065,13 @@
         <v>9</v>
       </c>
       <c r="B118">
-        <v>3052.830000000075</v>
+        <v>4306007</v>
       </c>
       <c r="C118">
-        <v>-13.42000000178814</v>
+        <v>37425011.58</v>
       </c>
       <c r="D118">
-        <v>-253.4700000000001</v>
+        <v>956.1799999999999</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2079,13 +2079,13 @@
         <v>9</v>
       </c>
       <c r="B119">
-        <v>40.21999999973923</v>
+        <v>4302994.39</v>
       </c>
       <c r="C119">
-        <v>-3025.95000000298</v>
+        <v>37421999.05</v>
       </c>
       <c r="D119">
-        <v>-262.9200000000001</v>
+        <v>946.7299999999998</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2093,13 +2093,13 @@
         <v>9</v>
       </c>
       <c r="B120">
-        <v>3050.120000000112</v>
+        <v>4306004.29</v>
       </c>
       <c r="C120">
-        <v>1972.79999999702</v>
+        <v>37426997.8</v>
       </c>
       <c r="D120">
-        <v>-225.45</v>
+        <v>984.2000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2107,13 +2107,13 @@
         <v>9</v>
       </c>
       <c r="B121">
-        <v>64.56000000052154</v>
+        <v>4303018.73</v>
       </c>
       <c r="C121">
-        <v>-1029.75</v>
+        <v>37423995.25</v>
       </c>
       <c r="D121">
-        <v>-251.6900000000001</v>
+        <v>957.9599999999998</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2121,13 +2121,13 @@
         <v>9</v>
       </c>
       <c r="B122">
-        <v>3041.400000000373</v>
+        <v>4305995.57</v>
       </c>
       <c r="C122">
-        <v>-1045.359999999404</v>
+        <v>37423979.64</v>
       </c>
       <c r="D122">
-        <v>-265.7500000000001</v>
+        <v>943.9000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2135,13 +2135,13 @@
         <v>9</v>
       </c>
       <c r="B123">
-        <v>2006.730000000447</v>
+        <v>4304960.9</v>
       </c>
       <c r="C123">
-        <v>1914</v>
+        <v>37426939</v>
       </c>
       <c r="D123">
-        <v>-227.4200000000002</v>
+        <v>982.2299999999998</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2149,13 +2149,13 @@
         <v>9</v>
       </c>
       <c r="B124">
-        <v>53.16999999992549</v>
+        <v>4303007.34</v>
       </c>
       <c r="C124">
-        <v>-1866</v>
+        <v>37423159</v>
       </c>
       <c r="D124">
-        <v>-254.84</v>
+        <v>954.8100000000001</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2163,13 +2163,13 @@
         <v>9</v>
       </c>
       <c r="B125">
-        <v>1041.099999999627</v>
+        <v>4303995.27</v>
       </c>
       <c r="C125">
-        <v>-1042.189999997616</v>
+        <v>37423982.81</v>
       </c>
       <c r="D125">
-        <v>-260.5000000000001</v>
+        <v>949.1499999999997</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2177,13 +2177,13 @@
         <v>9</v>
       </c>
       <c r="B126">
-        <v>2107.299999999814</v>
+        <v>4305061.47</v>
       </c>
       <c r="C126">
-        <v>-1947.490000002086</v>
+        <v>37423077.51</v>
       </c>
       <c r="D126">
-        <v>-265.47</v>
+        <v>944.1800000000001</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2191,13 +2191,13 @@
         <v>9</v>
       </c>
       <c r="B127">
-        <v>2077.900000000373</v>
+        <v>4305032.07</v>
       </c>
       <c r="C127">
-        <v>-3037.729999996722</v>
+        <v>37421987.27</v>
       </c>
       <c r="D127">
-        <v>-278.4900000000002</v>
+        <v>931.1600000000001</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2205,13 +2205,13 @@
         <v>9</v>
       </c>
       <c r="B128">
-        <v>1079.870000000112</v>
+        <v>4304034.04</v>
       </c>
       <c r="C128">
-        <v>-3041</v>
+        <v>37421984</v>
       </c>
       <c r="D128">
-        <v>-271.1100000000002</v>
+        <v>938.5400000000001</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2219,13 +2219,13 @@
         <v>9</v>
       </c>
       <c r="B129">
-        <v>3029.429999999702</v>
+        <v>4305983.6</v>
       </c>
       <c r="C129">
-        <v>-2982.369999997318</v>
+        <v>37422042.63</v>
       </c>
       <c r="D129">
-        <v>-260.85</v>
+        <v>948.8000000000002</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2233,13 +2233,13 @@
         <v>9</v>
       </c>
       <c r="B130">
-        <v>3035.349999999627</v>
+        <v>4305989.52</v>
       </c>
       <c r="C130">
-        <v>-2016.460000000894</v>
+        <v>37423008.54</v>
       </c>
       <c r="D130">
-        <v>-269.5100000000001</v>
+        <v>940.1399999999999</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2247,13 +2247,13 @@
         <v>9</v>
       </c>
       <c r="B131">
-        <v>1042.900000000373</v>
+        <v>4303997.07</v>
       </c>
       <c r="C131">
-        <v>2968</v>
+        <v>37427993</v>
       </c>
       <c r="D131">
-        <v>-217.7400000000002</v>
+        <v>991.9099999999999</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2261,13 +2261,13 @@
         <v>9</v>
       </c>
       <c r="B132">
-        <v>1111.169999999925</v>
+        <v>4304065.34</v>
       </c>
       <c r="C132">
-        <v>-1959.119999997318</v>
+        <v>37423065.88</v>
       </c>
       <c r="D132">
-        <v>-262.46</v>
+        <v>947.1899999999998</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2275,13 +2275,13 @@
         <v>9</v>
       </c>
       <c r="B133">
-        <v>1052.160000000149</v>
+        <v>4304006.33</v>
       </c>
       <c r="C133">
-        <v>965</v>
+        <v>37425990</v>
       </c>
       <c r="D133">
-        <v>-227.0400000000001</v>
+        <v>982.6099999999999</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2289,13 +2289,13 @@
         <v>9</v>
       </c>
       <c r="B134">
-        <v>2061.5</v>
+        <v>4305015.67</v>
       </c>
       <c r="C134">
-        <v>987.9200000017881</v>
+        <v>37426012.92</v>
       </c>
       <c r="D134">
-        <v>-232.75</v>
+        <v>976.9000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2303,13 +2303,13 @@
         <v>9</v>
       </c>
       <c r="B135">
-        <v>3024.959999999963</v>
+        <v>4305979.13</v>
       </c>
       <c r="C135">
-        <v>1004</v>
+        <v>37426029</v>
       </c>
       <c r="D135">
-        <v>-235.8900000000002</v>
+        <v>973.7600000000002</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2317,13 +2317,13 @@
         <v>9</v>
       </c>
       <c r="B136">
-        <v>2044.450000000186</v>
+        <v>4304998.62</v>
       </c>
       <c r="C136">
-        <v>-41.75</v>
+        <v>37424983.25</v>
       </c>
       <c r="D136">
-        <v>-245.4300000000001</v>
+        <v>964.2199999999998</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2331,13 +2331,13 @@
         <v>9</v>
       </c>
       <c r="B137">
-        <v>2034.280000000261</v>
+        <v>4304988.45</v>
       </c>
       <c r="C137">
-        <v>2969.64999999851</v>
+        <v>37427994.65</v>
       </c>
       <c r="D137">
-        <v>-217.5100000000002</v>
+        <v>992.1399999999999</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2345,13 +2345,13 @@
         <v>9</v>
       </c>
       <c r="B138">
-        <v>1063.200000000186</v>
+        <v>4304017.37</v>
       </c>
       <c r="C138">
-        <v>-20.21000000089407</v>
+        <v>37425004.79</v>
       </c>
       <c r="D138">
-        <v>-237.5000000000002</v>
+        <v>972.1500000000001</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2359,13 +2359,13 @@
         <v>9</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>4302954.17</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>37425025</v>
       </c>
       <c r="D139">
-        <v>-234.06</v>
+        <v>975.59</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2373,13 +2373,13 @@
         <v>10</v>
       </c>
       <c r="B140">
-        <v>2107.299999999814</v>
+        <v>4305061.47</v>
       </c>
       <c r="C140">
-        <v>-1947.490000002086</v>
+        <v>37423077.51</v>
       </c>
       <c r="D140">
-        <v>-273.44</v>
+        <v>936.21</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2387,13 +2387,13 @@
         <v>10</v>
       </c>
       <c r="B141">
-        <v>3035.349999999627</v>
+        <v>4305989.52</v>
       </c>
       <c r="C141">
-        <v>-2016.460000000894</v>
+        <v>37423008.54</v>
       </c>
       <c r="D141">
-        <v>-278.0900000000001</v>
+        <v>931.5599999999998</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2401,13 +2401,13 @@
         <v>10</v>
       </c>
       <c r="B142">
-        <v>2034.280000000261</v>
+        <v>4304988.45</v>
       </c>
       <c r="C142">
-        <v>2969.64999999851</v>
+        <v>37427994.65</v>
       </c>
       <c r="D142">
-        <v>-231.0200000000002</v>
+        <v>978.6299999999999</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2415,13 +2415,13 @@
         <v>10</v>
       </c>
       <c r="B143">
-        <v>40.21999999973923</v>
+        <v>4302994.39</v>
       </c>
       <c r="C143">
-        <v>-3025.95000000298</v>
+        <v>37421999.05</v>
       </c>
       <c r="D143">
-        <v>-273.5200000000001</v>
+        <v>936.1299999999998</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2429,13 +2429,13 @@
         <v>10</v>
       </c>
       <c r="B144">
-        <v>1111.169999999925</v>
+        <v>4304065.34</v>
       </c>
       <c r="C144">
-        <v>-1959.119999997318</v>
+        <v>37423065.88</v>
       </c>
       <c r="D144">
-        <v>-271.46</v>
+        <v>938.1899999999998</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2443,13 +2443,13 @@
         <v>10</v>
       </c>
       <c r="B145">
-        <v>53.16999999992549</v>
+        <v>4303007.34</v>
       </c>
       <c r="C145">
-        <v>-1866</v>
+        <v>37423159</v>
       </c>
       <c r="D145">
-        <v>-264.2400000000001</v>
+        <v>945.4100000000001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2457,13 +2457,13 @@
         <v>10</v>
       </c>
       <c r="B146">
-        <v>1041.099999999627</v>
+        <v>4303995.27</v>
       </c>
       <c r="C146">
-        <v>-1042.189999997616</v>
+        <v>37423982.81</v>
       </c>
       <c r="D146">
-        <v>-265.6000000000001</v>
+        <v>944.0499999999997</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2471,13 +2471,13 @@
         <v>10</v>
       </c>
       <c r="B147">
-        <v>3041.400000000373</v>
+        <v>4305995.57</v>
       </c>
       <c r="C147">
-        <v>-1045.359999999404</v>
+        <v>37423979.64</v>
       </c>
       <c r="D147">
-        <v>-272.3000000000001</v>
+        <v>937.35</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2485,13 +2485,13 @@
         <v>10</v>
       </c>
       <c r="B148">
-        <v>1042.900000000373</v>
+        <v>4303997.07</v>
       </c>
       <c r="C148">
-        <v>2968</v>
+        <v>37427993</v>
       </c>
       <c r="D148">
-        <v>-230.5900000000002</v>
+        <v>979.0599999999999</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2499,13 +2499,13 @@
         <v>10</v>
       </c>
       <c r="B149">
-        <v>2026.629999999888</v>
+        <v>4304980.8</v>
       </c>
       <c r="C149">
-        <v>-1014.869999997318</v>
+        <v>37424010.13</v>
       </c>
       <c r="D149">
-        <v>-267.3800000000001</v>
+        <v>942.27</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2513,13 +2513,13 @@
         <v>10</v>
       </c>
       <c r="B150">
-        <v>2061.5</v>
+        <v>4305015.67</v>
       </c>
       <c r="C150">
-        <v>987.9200000017881</v>
+        <v>37426012.92</v>
       </c>
       <c r="D150">
-        <v>-244.75</v>
+        <v>964.9000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2527,13 +2527,13 @@
         <v>10</v>
       </c>
       <c r="B151">
-        <v>1052.160000000149</v>
+        <v>4304006.33</v>
       </c>
       <c r="C151">
-        <v>965</v>
+        <v>37425990</v>
       </c>
       <c r="D151">
-        <v>-241.6600000000001</v>
+        <v>967.9899999999999</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2541,13 +2541,13 @@
         <v>10</v>
       </c>
       <c r="B152">
-        <v>2044.450000000186</v>
+        <v>4304998.62</v>
       </c>
       <c r="C152">
-        <v>-41.75</v>
+        <v>37424983.25</v>
       </c>
       <c r="D152">
-        <v>-253.5100000000002</v>
+        <v>956.1399999999999</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2555,13 +2555,13 @@
         <v>10</v>
       </c>
       <c r="B153">
-        <v>3052.830000000075</v>
+        <v>4306007</v>
       </c>
       <c r="C153">
-        <v>-13.42000000178814</v>
+        <v>37425011.58</v>
       </c>
       <c r="D153">
-        <v>-259.4700000000001</v>
+        <v>950.1799999999999</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2569,13 +2569,13 @@
         <v>10</v>
       </c>
       <c r="B154">
-        <v>3050.120000000112</v>
+        <v>4306004.29</v>
       </c>
       <c r="C154">
-        <v>1972.79999999702</v>
+        <v>37426997.8</v>
       </c>
       <c r="D154">
-        <v>-240.1000000000001</v>
+        <v>969.5500000000002</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2583,13 +2583,13 @@
         <v>10</v>
       </c>
       <c r="B155">
-        <v>3029.429999999702</v>
+        <v>4305983.6</v>
       </c>
       <c r="C155">
-        <v>-2982.369999997318</v>
+        <v>37422042.63</v>
       </c>
       <c r="D155">
-        <v>-269.87</v>
+        <v>939.7800000000002</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2597,13 +2597,13 @@
         <v>10</v>
       </c>
       <c r="B156">
-        <v>3024.959999999963</v>
+        <v>4305979.13</v>
       </c>
       <c r="C156">
-        <v>1004</v>
+        <v>37426029</v>
       </c>
       <c r="D156">
-        <v>-249.8200000000002</v>
+        <v>959.8300000000003</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2611,13 +2611,13 @@
         <v>10</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>4302954.17</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>37425025</v>
       </c>
       <c r="D157">
-        <v>-243.66</v>
+        <v>965.99</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2625,13 +2625,13 @@
         <v>10</v>
       </c>
       <c r="B158">
-        <v>1079.870000000112</v>
+        <v>4304034.04</v>
       </c>
       <c r="C158">
-        <v>-3041</v>
+        <v>37421984</v>
       </c>
       <c r="D158">
-        <v>-281.3100000000002</v>
+        <v>928.34</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2639,13 +2639,13 @@
         <v>10</v>
       </c>
       <c r="B159">
-        <v>1063.200000000186</v>
+        <v>4304017.37</v>
       </c>
       <c r="C159">
-        <v>-20.21000000089407</v>
+        <v>37425004.79</v>
       </c>
       <c r="D159">
-        <v>-249.0800000000002</v>
+        <v>960.5700000000002</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2653,13 +2653,13 @@
         <v>10</v>
       </c>
       <c r="B160">
-        <v>2006.730000000447</v>
+        <v>4304960.9</v>
       </c>
       <c r="C160">
-        <v>1914</v>
+        <v>37426939</v>
       </c>
       <c r="D160">
-        <v>-239.3100000000002</v>
+        <v>970.3399999999998</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2667,13 +2667,13 @@
         <v>10</v>
       </c>
       <c r="B161">
-        <v>64.56000000052154</v>
+        <v>4303018.73</v>
       </c>
       <c r="C161">
-        <v>-1029.75</v>
+        <v>37423995.25</v>
       </c>
       <c r="D161">
-        <v>-258.39</v>
+        <v>951.2599999999998</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2681,13 +2681,13 @@
         <v>10</v>
       </c>
       <c r="B162">
-        <v>2077.900000000373</v>
+        <v>4305032.07</v>
       </c>
       <c r="C162">
-        <v>-3037.729999996722</v>
+        <v>37421987.27</v>
       </c>
       <c r="D162">
-        <v>-286.9900000000002</v>
+        <v>922.6600000000001</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2695,13 +2695,13 @@
         <v>11</v>
       </c>
       <c r="B163">
-        <v>2034.280000000261</v>
+        <v>4304988.45</v>
       </c>
       <c r="C163">
-        <v>2969.64999999851</v>
+        <v>37427994.65</v>
       </c>
       <c r="D163">
-        <v>-213.2100000000002</v>
+        <v>996.4399999999999</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2709,13 +2709,13 @@
         <v>11</v>
       </c>
       <c r="B164">
-        <v>1052.160000000149</v>
+        <v>4304006.33</v>
       </c>
       <c r="C164">
-        <v>965</v>
+        <v>37425990</v>
       </c>
       <c r="D164">
-        <v>-222.3900000000001</v>
+        <v>987.2599999999999</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2723,13 +2723,13 @@
         <v>11</v>
       </c>
       <c r="B165">
-        <v>2077.900000000373</v>
+        <v>4305032.07</v>
       </c>
       <c r="C165">
-        <v>-3037.729999996722</v>
+        <v>37421987.27</v>
       </c>
       <c r="D165">
-        <v>-272.6800000000002</v>
+        <v>936.97</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2737,13 +2737,13 @@
         <v>11</v>
       </c>
       <c r="B166">
-        <v>1041.099999999627</v>
+        <v>4303995.27</v>
       </c>
       <c r="C166">
-        <v>-1042.189999997616</v>
+        <v>37423982.81</v>
       </c>
       <c r="D166">
-        <v>-255.2000000000001</v>
+        <v>954.4499999999997</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2751,13 +2751,13 @@
         <v>11</v>
       </c>
       <c r="B167">
-        <v>53.16999999992549</v>
+        <v>4303007.34</v>
       </c>
       <c r="C167">
-        <v>-1866</v>
+        <v>37423159</v>
       </c>
       <c r="D167">
-        <v>-250.24</v>
+        <v>959.4100000000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2765,13 +2765,13 @@
         <v>11</v>
       </c>
       <c r="B168">
-        <v>2044.450000000186</v>
+        <v>4304998.62</v>
       </c>
       <c r="C168">
-        <v>-41.75</v>
+        <v>37424983.25</v>
       </c>
       <c r="D168">
-        <v>-240.2300000000001</v>
+        <v>969.4199999999998</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2779,13 +2779,13 @@
         <v>11</v>
       </c>
       <c r="B169">
-        <v>40.21999999973923</v>
+        <v>4302994.39</v>
       </c>
       <c r="C169">
-        <v>-3025.95000000298</v>
+        <v>37421999.05</v>
       </c>
       <c r="D169">
-        <v>-258.3200000000001</v>
+        <v>951.3299999999998</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2793,13 +2793,13 @@
         <v>11</v>
       </c>
       <c r="B170">
-        <v>1042.900000000373</v>
+        <v>4303997.07</v>
       </c>
       <c r="C170">
-        <v>2968</v>
+        <v>37427993</v>
       </c>
       <c r="D170">
-        <v>-216.3700000000002</v>
+        <v>993.2799999999999</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2807,13 +2807,13 @@
         <v>11</v>
       </c>
       <c r="B171">
-        <v>1111.169999999925</v>
+        <v>4304065.34</v>
       </c>
       <c r="C171">
-        <v>-1959.119999997318</v>
+        <v>37423065.88</v>
       </c>
       <c r="D171">
-        <v>-257.16</v>
+        <v>952.4899999999999</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2821,13 +2821,13 @@
         <v>11</v>
       </c>
       <c r="B172">
-        <v>3029.429999999702</v>
+        <v>4305983.6</v>
       </c>
       <c r="C172">
-        <v>-2982.369999997318</v>
+        <v>37422042.63</v>
       </c>
       <c r="D172">
-        <v>-255.27</v>
+        <v>954.3800000000002</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2835,13 +2835,13 @@
         <v>11</v>
       </c>
       <c r="B173">
-        <v>1063.200000000186</v>
+        <v>4304017.37</v>
       </c>
       <c r="C173">
-        <v>-20.21000000089407</v>
+        <v>37425004.79</v>
       </c>
       <c r="D173">
-        <v>-233.0000000000002</v>
+        <v>976.6500000000001</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2849,13 +2849,13 @@
         <v>11</v>
       </c>
       <c r="B174">
-        <v>3035.349999999627</v>
+        <v>4305989.52</v>
       </c>
       <c r="C174">
-        <v>-2016.460000000894</v>
+        <v>37423008.54</v>
       </c>
       <c r="D174">
-        <v>-263.5700000000001</v>
+        <v>946.0799999999999</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2863,13 +2863,13 @@
         <v>11</v>
       </c>
       <c r="B175">
-        <v>3024.959999999963</v>
+        <v>4305979.13</v>
       </c>
       <c r="C175">
-        <v>1004</v>
+        <v>37426029</v>
       </c>
       <c r="D175">
-        <v>-231.1900000000001</v>
+        <v>978.4600000000003</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2877,13 +2877,13 @@
         <v>11</v>
       </c>
       <c r="B176">
-        <v>3050.120000000112</v>
+        <v>4306004.29</v>
       </c>
       <c r="C176">
-        <v>1972.79999999702</v>
+        <v>37426997.8</v>
       </c>
       <c r="D176">
-        <v>-220.65</v>
+        <v>989.0000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2891,13 +2891,13 @@
         <v>11</v>
       </c>
       <c r="B177">
-        <v>2006.730000000447</v>
+        <v>4304960.9</v>
       </c>
       <c r="C177">
-        <v>1914</v>
+        <v>37426939</v>
       </c>
       <c r="D177">
-        <v>-222.5200000000002</v>
+        <v>987.1299999999998</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2905,13 +2905,13 @@
         <v>11</v>
       </c>
       <c r="B178">
-        <v>2026.629999999888</v>
+        <v>4304980.8</v>
       </c>
       <c r="C178">
-        <v>-1014.869999997318</v>
+        <v>37424010.13</v>
       </c>
       <c r="D178">
-        <v>-255.16</v>
+        <v>954.49</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2919,13 +2919,13 @@
         <v>11</v>
       </c>
       <c r="B179">
-        <v>2107.299999999814</v>
+        <v>4305061.47</v>
       </c>
       <c r="C179">
-        <v>-1947.490000002086</v>
+        <v>37423077.51</v>
       </c>
       <c r="D179">
-        <v>-259.81</v>
+        <v>949.84</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2933,13 +2933,13 @@
         <v>11</v>
       </c>
       <c r="B180">
-        <v>64.56000000052154</v>
+        <v>4303018.73</v>
       </c>
       <c r="C180">
-        <v>-1029.75</v>
+        <v>37423995.25</v>
       </c>
       <c r="D180">
-        <v>-246.3900000000001</v>
+        <v>963.2599999999998</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2947,13 +2947,13 @@
         <v>11</v>
       </c>
       <c r="B181">
-        <v>2061.5</v>
+        <v>4305015.67</v>
       </c>
       <c r="C181">
-        <v>987.9200000017881</v>
+        <v>37426012.92</v>
       </c>
       <c r="D181">
-        <v>-228.05</v>
+        <v>981.6000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2961,13 +2961,13 @@
         <v>11</v>
       </c>
       <c r="B182">
-        <v>1079.870000000112</v>
+        <v>4304034.04</v>
       </c>
       <c r="C182">
-        <v>-3041</v>
+        <v>37421984</v>
       </c>
       <c r="D182">
-        <v>-265.8200000000002</v>
+        <v>943.83</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2975,13 +2975,13 @@
         <v>11</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>4302954.17</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>37425025</v>
       </c>
       <c r="D183">
-        <v>-229.96</v>
+        <v>979.6900000000001</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2989,13 +2989,13 @@
         <v>11</v>
       </c>
       <c r="B184">
-        <v>3041.400000000373</v>
+        <v>4305995.57</v>
       </c>
       <c r="C184">
-        <v>-1045.359999999404</v>
+        <v>37423979.64</v>
       </c>
       <c r="D184">
-        <v>-260.1500000000001</v>
+        <v>949.5</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3003,13 +3003,13 @@
         <v>11</v>
       </c>
       <c r="B185">
-        <v>3052.830000000075</v>
+        <v>4306007</v>
       </c>
       <c r="C185">
-        <v>-13.42000000178814</v>
+        <v>37425011.58</v>
       </c>
       <c r="D185">
-        <v>-246.9700000000001</v>
+        <v>962.6799999999999</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3017,13 +3017,13 @@
         <v>12</v>
       </c>
       <c r="B186">
-        <v>2077.900000000373</v>
+        <v>4305032.07</v>
       </c>
       <c r="C186">
-        <v>-3037.729999996722</v>
+        <v>37421987.27</v>
       </c>
       <c r="D186">
-        <v>-285.2400000000002</v>
+        <v>924.4100000000001</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3031,13 +3031,13 @@
         <v>12</v>
       </c>
       <c r="B187">
-        <v>1042.900000000373</v>
+        <v>4303997.07</v>
       </c>
       <c r="C187">
-        <v>2968</v>
+        <v>37427993</v>
       </c>
       <c r="D187">
-        <v>-228.2900000000002</v>
+        <v>981.3599999999999</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3045,13 +3045,13 @@
         <v>12</v>
       </c>
       <c r="B188">
-        <v>3024.959999999963</v>
+        <v>4305979.13</v>
       </c>
       <c r="C188">
-        <v>1004</v>
+        <v>37426029</v>
       </c>
       <c r="D188">
-        <v>-249.1200000000001</v>
+        <v>960.5300000000003</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3059,13 +3059,13 @@
         <v>12</v>
       </c>
       <c r="B189">
-        <v>2107.299999999814</v>
+        <v>4305061.47</v>
       </c>
       <c r="C189">
-        <v>-1947.490000002086</v>
+        <v>37423077.51</v>
       </c>
       <c r="D189">
-        <v>-271.44</v>
+        <v>938.21</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3073,13 +3073,13 @@
         <v>12</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>4302954.17</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>37425025</v>
       </c>
       <c r="D190">
-        <v>-242.56</v>
+        <v>967.09</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3087,13 +3087,13 @@
         <v>12</v>
       </c>
       <c r="B191">
-        <v>3029.429999999702</v>
+        <v>4305983.6</v>
       </c>
       <c r="C191">
-        <v>-2982.369999997318</v>
+        <v>37422042.63</v>
       </c>
       <c r="D191">
-        <v>-268.17</v>
+        <v>941.4800000000002</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3101,13 +3101,13 @@
         <v>12</v>
       </c>
       <c r="B192">
-        <v>2061.5</v>
+        <v>4305015.67</v>
       </c>
       <c r="C192">
-        <v>987.9200000017881</v>
+        <v>37426012.92</v>
       </c>
       <c r="D192">
-        <v>-243.3</v>
+        <v>966.3500000000001</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3115,13 +3115,13 @@
         <v>12</v>
       </c>
       <c r="B193">
-        <v>1079.870000000112</v>
+        <v>4304034.04</v>
       </c>
       <c r="C193">
-        <v>-3041</v>
+        <v>37421984</v>
       </c>
       <c r="D193">
-        <v>-279.6100000000002</v>
+        <v>930.0400000000001</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3129,13 +3129,13 @@
         <v>12</v>
       </c>
       <c r="B194">
-        <v>1111.169999999925</v>
+        <v>4304065.34</v>
       </c>
       <c r="C194">
-        <v>-1959.119999997318</v>
+        <v>37423065.88</v>
       </c>
       <c r="D194">
-        <v>-269.8100000000001</v>
+        <v>939.8399999999998</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3143,13 +3143,13 @@
         <v>12</v>
       </c>
       <c r="B195">
-        <v>1041.099999999627</v>
+        <v>4303995.27</v>
       </c>
       <c r="C195">
-        <v>-1042.189999997616</v>
+        <v>37423982.81</v>
       </c>
       <c r="D195">
-        <v>-263.8500000000001</v>
+        <v>945.7999999999997</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3157,13 +3157,13 @@
         <v>12</v>
       </c>
       <c r="B196">
-        <v>2006.730000000447</v>
+        <v>4304960.9</v>
       </c>
       <c r="C196">
-        <v>1914</v>
+        <v>37426939</v>
       </c>
       <c r="D196">
-        <v>-237.9100000000002</v>
+        <v>971.7399999999998</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3171,13 +3171,13 @@
         <v>12</v>
       </c>
       <c r="B197">
-        <v>64.56000000052154</v>
+        <v>4303018.73</v>
       </c>
       <c r="C197">
-        <v>-1029.75</v>
+        <v>37423995.25</v>
       </c>
       <c r="D197">
-        <v>-256.7900000000001</v>
+        <v>952.8599999999998</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3185,13 +3185,13 @@
         <v>12</v>
       </c>
       <c r="B198">
-        <v>2026.629999999888</v>
+        <v>4304980.8</v>
       </c>
       <c r="C198">
-        <v>-1014.869999997318</v>
+        <v>37424010.13</v>
       </c>
       <c r="D198">
-        <v>-265.58</v>
+        <v>944.0699999999999</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3199,13 +3199,13 @@
         <v>12</v>
       </c>
       <c r="B199">
-        <v>3050.120000000112</v>
+        <v>4306004.29</v>
       </c>
       <c r="C199">
-        <v>1972.79999999702</v>
+        <v>37426997.8</v>
       </c>
       <c r="D199">
-        <v>-238.75</v>
+        <v>970.9000000000002</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3213,13 +3213,13 @@
         <v>12</v>
       </c>
       <c r="B200">
-        <v>40.21999999973923</v>
+        <v>4302994.39</v>
       </c>
       <c r="C200">
-        <v>-3025.95000000298</v>
+        <v>37421999.05</v>
       </c>
       <c r="D200">
-        <v>-271.9200000000001</v>
+        <v>937.7299999999998</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3227,13 +3227,13 @@
         <v>12</v>
       </c>
       <c r="B201">
-        <v>3035.349999999627</v>
+        <v>4305989.52</v>
       </c>
       <c r="C201">
-        <v>-2016.460000000894</v>
+        <v>37423008.54</v>
       </c>
       <c r="D201">
-        <v>-276.4000000000001</v>
+        <v>933.2499999999999</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3241,13 +3241,13 @@
         <v>12</v>
       </c>
       <c r="B202">
-        <v>3041.400000000373</v>
+        <v>4305995.57</v>
       </c>
       <c r="C202">
-        <v>-1045.359999999404</v>
+        <v>37423979.64</v>
       </c>
       <c r="D202">
-        <v>-270.8500000000001</v>
+        <v>938.8000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3255,13 +3255,13 @@
         <v>12</v>
       </c>
       <c r="B203">
-        <v>2034.280000000261</v>
+        <v>4304988.45</v>
       </c>
       <c r="C203">
-        <v>2969.64999999851</v>
+        <v>37427994.65</v>
       </c>
       <c r="D203">
-        <v>-229.5800000000002</v>
+        <v>980.0699999999999</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3269,13 +3269,13 @@
         <v>12</v>
       </c>
       <c r="B204">
-        <v>2044.450000000186</v>
+        <v>4304998.62</v>
       </c>
       <c r="C204">
-        <v>-41.75</v>
+        <v>37424983.25</v>
       </c>
       <c r="D204">
-        <v>-251.7100000000002</v>
+        <v>957.9399999999998</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3283,13 +3283,13 @@
         <v>12</v>
       </c>
       <c r="B205">
-        <v>53.16999999992549</v>
+        <v>4303007.34</v>
       </c>
       <c r="C205">
-        <v>-1866</v>
+        <v>37423159</v>
       </c>
       <c r="D205">
-        <v>-262.4400000000001</v>
+        <v>947.21</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3297,13 +3297,13 @@
         <v>12</v>
       </c>
       <c r="B206">
-        <v>1052.160000000149</v>
+        <v>4304006.33</v>
       </c>
       <c r="C206">
-        <v>965</v>
+        <v>37425990</v>
       </c>
       <c r="D206">
-        <v>-240.2800000000001</v>
+        <v>969.3699999999999</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3311,13 +3311,13 @@
         <v>12</v>
       </c>
       <c r="B207">
-        <v>1063.200000000186</v>
+        <v>4304017.37</v>
       </c>
       <c r="C207">
-        <v>-20.21000000089407</v>
+        <v>37425004.79</v>
       </c>
       <c r="D207">
-        <v>-247.5800000000002</v>
+        <v>962.0700000000002</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3325,13 +3325,13 @@
         <v>12</v>
       </c>
       <c r="B208">
-        <v>3052.830000000075</v>
+        <v>4306007</v>
       </c>
       <c r="C208">
-        <v>-13.42000000178814</v>
+        <v>37425011.58</v>
       </c>
       <c r="D208">
-        <v>-257.9700000000001</v>
+        <v>951.6799999999999</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3339,13 +3339,13 @@
         <v>13</v>
       </c>
       <c r="B209">
-        <v>1079.870000000112</v>
+        <v>4304034.04</v>
       </c>
       <c r="C209">
-        <v>-3041</v>
+        <v>37421984</v>
       </c>
       <c r="D209">
-        <v>-332.5000000000002</v>
+        <v>877.1500000000001</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3353,13 +3353,13 @@
         <v>13</v>
       </c>
       <c r="B210">
-        <v>3035.349999999627</v>
+        <v>4305989.52</v>
       </c>
       <c r="C210">
-        <v>-2016.460000000894</v>
+        <v>37423008.54</v>
       </c>
       <c r="D210">
-        <v>-287.7200000000001</v>
+        <v>921.9299999999998</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3367,13 +3367,13 @@
         <v>13</v>
       </c>
       <c r="B211">
-        <v>40.21999999973923</v>
+        <v>4302994.39</v>
       </c>
       <c r="C211">
-        <v>-3025.95000000298</v>
+        <v>37421999.05</v>
       </c>
       <c r="D211">
-        <v>-283.5200000000001</v>
+        <v>926.1299999999998</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3381,13 +3381,13 @@
         <v>13</v>
       </c>
       <c r="B212">
-        <v>3029.429999999702</v>
+        <v>4305983.6</v>
       </c>
       <c r="C212">
-        <v>-2982.369999997318</v>
+        <v>37422042.63</v>
       </c>
       <c r="D212">
-        <v>-279.95</v>
+        <v>929.7000000000002</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3395,13 +3395,13 @@
         <v>13</v>
       </c>
       <c r="B213">
-        <v>2077.900000000373</v>
+        <v>4305032.07</v>
       </c>
       <c r="C213">
-        <v>-3037.729999996722</v>
+        <v>37421987.27</v>
       </c>
       <c r="D213">
-        <v>-296.2200000000002</v>
+        <v>913.4300000000001</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3409,13 +3409,13 @@
         <v>13</v>
       </c>
       <c r="B214">
-        <v>2107.299999999814</v>
+        <v>4305061.47</v>
       </c>
       <c r="C214">
-        <v>-1947.490000002086</v>
+        <v>37423077.51</v>
       </c>
       <c r="D214">
-        <v>-325.08</v>
+        <v>884.5700000000001</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3423,13 +3423,13 @@
         <v>13</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>4302954.17</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>37425025</v>
       </c>
       <c r="D215">
-        <v>-288.51</v>
+        <v>921.14</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3437,13 +3437,13 @@
         <v>13</v>
       </c>
       <c r="B216">
-        <v>1052.160000000149</v>
+        <v>4304006.33</v>
       </c>
       <c r="C216">
-        <v>965</v>
+        <v>37425990</v>
       </c>
       <c r="D216">
-        <v>-288.4300000000001</v>
+        <v>921.2199999999999</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3451,13 +3451,13 @@
         <v>13</v>
       </c>
       <c r="B217">
-        <v>1063.200000000186</v>
+        <v>4304017.37</v>
       </c>
       <c r="C217">
-        <v>-20.21000000089407</v>
+        <v>37425004.79</v>
       </c>
       <c r="D217">
-        <v>-259.0000000000002</v>
+        <v>950.6500000000001</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3465,13 +3465,13 @@
         <v>13</v>
       </c>
       <c r="B218">
-        <v>2044.450000000186</v>
+        <v>4304998.62</v>
       </c>
       <c r="C218">
-        <v>-41.75</v>
+        <v>37424983.25</v>
       </c>
       <c r="D218">
-        <v>-264.0500000000001</v>
+        <v>945.5999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3479,13 +3479,13 @@
         <v>13</v>
       </c>
       <c r="B219">
-        <v>3052.830000000075</v>
+        <v>4306007</v>
       </c>
       <c r="C219">
-        <v>-13.42000000178814</v>
+        <v>37425011.58</v>
       </c>
       <c r="D219">
-        <v>-269.3700000000002</v>
+        <v>940.28</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3493,13 +3493,13 @@
         <v>13</v>
       </c>
       <c r="B220">
-        <v>3050.120000000112</v>
+        <v>4306004.29</v>
       </c>
       <c r="C220">
-        <v>1972.79999999702</v>
+        <v>37426997.8</v>
       </c>
       <c r="D220">
-        <v>-251.24</v>
+        <v>958.4100000000002</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3507,13 +3507,13 @@
         <v>13</v>
       </c>
       <c r="B221">
-        <v>64.56000000052154</v>
+        <v>4303018.73</v>
       </c>
       <c r="C221">
-        <v>-1029.75</v>
+        <v>37423995.25</v>
       </c>
       <c r="D221">
-        <v>-268.39</v>
+        <v>941.2599999999998</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3521,13 +3521,13 @@
         <v>13</v>
       </c>
       <c r="B222">
-        <v>3024.959999999963</v>
+        <v>4305979.13</v>
       </c>
       <c r="C222">
-        <v>1004</v>
+        <v>37426029</v>
       </c>
       <c r="D222">
-        <v>-296.8700000000001</v>
+        <v>912.7800000000003</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3535,13 +3535,13 @@
         <v>13</v>
       </c>
       <c r="B223">
-        <v>1041.099999999627</v>
+        <v>4303995.27</v>
       </c>
       <c r="C223">
-        <v>-1042.189999997616</v>
+        <v>37423982.81</v>
       </c>
       <c r="D223">
-        <v>-275.5000000000001</v>
+        <v>934.1499999999997</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3549,13 +3549,13 @@
         <v>13</v>
       </c>
       <c r="B224">
-        <v>2006.730000000447</v>
+        <v>4304960.9</v>
       </c>
       <c r="C224">
-        <v>1914</v>
+        <v>37426939</v>
       </c>
       <c r="D224">
-        <v>-279.3900000000002</v>
+        <v>930.2599999999998</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3563,13 +3563,13 @@
         <v>13</v>
       </c>
       <c r="B225">
-        <v>2026.629999999888</v>
+        <v>4304980.8</v>
       </c>
       <c r="C225">
-        <v>-1014.869999997318</v>
+        <v>37424010.13</v>
       </c>
       <c r="D225">
-        <v>-278.04</v>
+        <v>931.61</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3577,13 +3577,13 @@
         <v>13</v>
       </c>
       <c r="B226">
-        <v>3041.400000000373</v>
+        <v>4305995.57</v>
       </c>
       <c r="C226">
-        <v>-1045.359999999404</v>
+        <v>37423979.64</v>
       </c>
       <c r="D226">
-        <v>-322.95</v>
+        <v>886.7</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3591,13 +3591,13 @@
         <v>13</v>
       </c>
       <c r="B227">
-        <v>2034.280000000261</v>
+        <v>4304988.45</v>
       </c>
       <c r="C227">
-        <v>2969.64999999851</v>
+        <v>37427994.65</v>
       </c>
       <c r="D227">
-        <v>-242.4700000000002</v>
+        <v>967.1799999999998</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3605,13 +3605,13 @@
         <v>13</v>
       </c>
       <c r="B228">
-        <v>53.16999999992549</v>
+        <v>4303007.34</v>
       </c>
       <c r="C228">
-        <v>-1866</v>
+        <v>37423159</v>
       </c>
       <c r="D228">
-        <v>-323.33</v>
+        <v>886.3200000000002</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3619,13 +3619,13 @@
         <v>13</v>
       </c>
       <c r="B229">
-        <v>1042.900000000373</v>
+        <v>4303997.07</v>
       </c>
       <c r="C229">
-        <v>2968</v>
+        <v>37427993</v>
       </c>
       <c r="D229">
-        <v>-269.0500000000002</v>
+        <v>940.5999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3633,13 +3633,13 @@
         <v>13</v>
       </c>
       <c r="B230">
-        <v>1111.169999999925</v>
+        <v>4304065.34</v>
       </c>
       <c r="C230">
-        <v>-1959.119999997318</v>
+        <v>37423065.88</v>
       </c>
       <c r="D230">
-        <v>-281.21</v>
+        <v>928.4399999999998</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3647,13 +3647,13 @@
         <v>13</v>
       </c>
       <c r="B231">
-        <v>2061.5</v>
+        <v>4305015.67</v>
       </c>
       <c r="C231">
-        <v>987.9200000017881</v>
+        <v>37426012.92</v>
       </c>
       <c r="D231">
-        <v>-254.25</v>
+        <v>955.4000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3661,13 +3661,13 @@
         <v>14</v>
       </c>
       <c r="B232">
-        <v>2077.900000000373</v>
+        <v>4305032.07</v>
       </c>
       <c r="C232">
-        <v>-3037.729999996722</v>
+        <v>37421987.27</v>
       </c>
       <c r="D232">
-        <v>-209.4400000000002</v>
+        <v>1000.21</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3675,13 +3675,13 @@
         <v>14</v>
       </c>
       <c r="B233">
-        <v>3050.120000000112</v>
+        <v>4306004.29</v>
       </c>
       <c r="C233">
-        <v>1972.79999999702</v>
+        <v>37426997.8</v>
       </c>
       <c r="D233">
-        <v>-165.15</v>
+        <v>1044.5</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3689,13 +3689,13 @@
         <v>14</v>
       </c>
       <c r="B234">
-        <v>2034.280000000261</v>
+        <v>4304988.45</v>
       </c>
       <c r="C234">
-        <v>2969.64999999851</v>
+        <v>37427994.65</v>
       </c>
       <c r="D234">
-        <v>-148.6700000000002</v>
+        <v>1060.98</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3703,13 +3703,13 @@
         <v>14</v>
       </c>
       <c r="B235">
-        <v>1052.160000000149</v>
+        <v>4304006.33</v>
       </c>
       <c r="C235">
-        <v>965</v>
+        <v>37425990</v>
       </c>
       <c r="D235">
-        <v>-167.2900000000001</v>
+        <v>1042.36</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3717,13 +3717,13 @@
         <v>14</v>
       </c>
       <c r="B236">
-        <v>1042.900000000373</v>
+        <v>4303997.07</v>
       </c>
       <c r="C236">
-        <v>2968</v>
+        <v>37427993</v>
       </c>
       <c r="D236">
-        <v>-159.1900000000002</v>
+        <v>1050.46</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3731,13 +3731,13 @@
         <v>14</v>
       </c>
       <c r="B237">
-        <v>2061.5</v>
+        <v>4305015.67</v>
       </c>
       <c r="C237">
-        <v>987.9200000017881</v>
+        <v>37426012.92</v>
       </c>
       <c r="D237">
-        <v>-170.75</v>
+        <v>1038.9</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3745,13 +3745,13 @@
         <v>14</v>
       </c>
       <c r="B238">
-        <v>2006.730000000447</v>
+        <v>4304960.9</v>
       </c>
       <c r="C238">
-        <v>1914</v>
+        <v>37426939</v>
       </c>
       <c r="D238">
-        <v>-165.9900000000002</v>
+        <v>1043.66</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3759,13 +3759,13 @@
         <v>14</v>
       </c>
       <c r="B239">
-        <v>1063.200000000186</v>
+        <v>4304017.37</v>
       </c>
       <c r="C239">
-        <v>-20.21000000089407</v>
+        <v>37425004.79</v>
       </c>
       <c r="D239">
-        <v>-172.2400000000002</v>
+        <v>1037.41</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3773,13 +3773,13 @@
         <v>14</v>
       </c>
       <c r="B240">
-        <v>3029.429999999702</v>
+        <v>4305983.6</v>
       </c>
       <c r="C240">
-        <v>-2982.369999997318</v>
+        <v>37422042.63</v>
       </c>
       <c r="D240">
-        <v>-191.62</v>
+        <v>1018.03</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3787,13 +3787,13 @@
         <v>14</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>4302954.17</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>37425025</v>
       </c>
       <c r="D241">
-        <v>-171.95</v>
+        <v>1037.7</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3801,13 +3801,13 @@
         <v>14</v>
       </c>
       <c r="B242">
-        <v>3035.349999999627</v>
+        <v>4305989.52</v>
       </c>
       <c r="C242">
-        <v>-2016.460000000894</v>
+        <v>37423008.54</v>
       </c>
       <c r="D242">
-        <v>-202.1500000000001</v>
+        <v>1007.5</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3815,13 +3815,13 @@
         <v>14</v>
       </c>
       <c r="B243">
-        <v>2044.450000000186</v>
+        <v>4304998.62</v>
       </c>
       <c r="C243">
-        <v>-41.75</v>
+        <v>37424983.25</v>
       </c>
       <c r="D243">
-        <v>-175.9400000000001</v>
+        <v>1033.71</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3829,13 +3829,13 @@
         <v>14</v>
       </c>
       <c r="B244">
-        <v>64.56000000052154</v>
+        <v>4303018.73</v>
       </c>
       <c r="C244">
-        <v>-1029.75</v>
+        <v>37423995.25</v>
       </c>
       <c r="D244">
-        <v>-181.7900000000001</v>
+        <v>1027.86</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3843,13 +3843,13 @@
         <v>14</v>
       </c>
       <c r="B245">
-        <v>1079.870000000112</v>
+        <v>4304034.04</v>
       </c>
       <c r="C245">
-        <v>-3041</v>
+        <v>37421984</v>
       </c>
       <c r="D245">
-        <v>-197.3900000000002</v>
+        <v>1012.26</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3857,13 +3857,13 @@
         <v>14</v>
       </c>
       <c r="B246">
-        <v>1041.099999999627</v>
+        <v>4303995.27</v>
       </c>
       <c r="C246">
-        <v>-1042.189999997616</v>
+        <v>37423982.81</v>
       </c>
       <c r="D246">
-        <v>-185.7000000000001</v>
+        <v>1023.95</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3871,13 +3871,13 @@
         <v>14</v>
       </c>
       <c r="B247">
-        <v>2026.629999999888</v>
+        <v>4304980.8</v>
       </c>
       <c r="C247">
-        <v>-1014.869999997318</v>
+        <v>37424010.13</v>
       </c>
       <c r="D247">
-        <v>-190.9</v>
+        <v>1018.75</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3885,13 +3885,13 @@
         <v>14</v>
       </c>
       <c r="B248">
-        <v>3041.400000000373</v>
+        <v>4305995.57</v>
       </c>
       <c r="C248">
-        <v>-1045.359999999404</v>
+        <v>37423979.64</v>
       </c>
       <c r="D248">
-        <v>-197.7400000000001</v>
+        <v>1011.91</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3899,13 +3899,13 @@
         <v>14</v>
       </c>
       <c r="B249">
-        <v>53.16999999992549</v>
+        <v>4303007.34</v>
       </c>
       <c r="C249">
-        <v>-1866</v>
+        <v>37423159</v>
       </c>
       <c r="D249">
-        <v>-185.22</v>
+        <v>1024.43</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3913,13 +3913,13 @@
         <v>14</v>
       </c>
       <c r="B250">
-        <v>40.21999999973923</v>
+        <v>4302994.39</v>
       </c>
       <c r="C250">
-        <v>-3025.95000000298</v>
+        <v>37421999.05</v>
       </c>
       <c r="D250">
-        <v>-198.22</v>
+        <v>1011.43</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3927,13 +3927,13 @@
         <v>14</v>
       </c>
       <c r="B251">
-        <v>1111.169999999925</v>
+        <v>4304065.34</v>
       </c>
       <c r="C251">
-        <v>-1959.119999997318</v>
+        <v>37423065.88</v>
       </c>
       <c r="D251">
-        <v>-192.76</v>
+        <v>1016.89</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3941,13 +3941,13 @@
         <v>14</v>
       </c>
       <c r="B252">
-        <v>2107.299999999814</v>
+        <v>4305061.47</v>
       </c>
       <c r="C252">
-        <v>-1947.490000002086</v>
+        <v>37423077.51</v>
       </c>
       <c r="D252">
-        <v>-197.23</v>
+        <v>1012.42</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3955,13 +3955,13 @@
         <v>14</v>
       </c>
       <c r="B253">
-        <v>3024.959999999963</v>
+        <v>4305979.13</v>
       </c>
       <c r="C253">
-        <v>1004</v>
+        <v>37426029</v>
       </c>
       <c r="D253">
-        <v>-175.8100000000001</v>
+        <v>1033.84</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3969,13 +3969,13 @@
         <v>14</v>
       </c>
       <c r="B254">
-        <v>3052.830000000075</v>
+        <v>4306007</v>
       </c>
       <c r="C254">
-        <v>-13.42000000178814</v>
+        <v>37425011.58</v>
       </c>
       <c r="D254">
-        <v>-188.2700000000002</v>
+        <v>1021.38</v>
       </c>
     </row>
   </sheetData>
